--- a/inputfiles/MgmtRules.xlsx
+++ b/inputfiles/MgmtRules.xlsx
@@ -12,9 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="v2" sheetId="3" r:id="rId1"/>
+    <sheet name="v1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'v1'!$A$1:$O$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'v2'!$A$1:$O$40</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="70">
   <si>
     <t>spp</t>
   </si>
@@ -196,13 +201,56 @@
   </si>
   <si>
     <t>CS03</t>
+  </si>
+  <si>
+    <t>CS05</t>
+  </si>
+  <si>
+    <t>SQI</t>
+  </si>
+  <si>
+    <t>SPP</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>1 -low</t>
+  </si>
+  <si>
+    <t>2 -high</t>
+  </si>
+  <si>
+    <t>3 - optimal</t>
+  </si>
+  <si>
+    <t>USABLE (ha)</t>
+  </si>
+  <si>
+    <t>HARVESTABLE (ha)</t>
+  </si>
+  <si>
+    <t>FS01</t>
+  </si>
+  <si>
+    <t>pctgextract.diss</t>
+  </si>
+  <si>
+    <t>pctgextract.fin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +262,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -405,11 +468,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -561,8 +760,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -851,31 +1218,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O40" sqref="B2:O40"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="48"/>
-    <col min="2" max="3" width="11.42578125" style="49"/>
-    <col min="4" max="5" width="13" style="49" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="49" customWidth="1"/>
-    <col min="8" max="9" width="13" style="49" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13" style="49" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="49"/>
-    <col min="15" max="15" width="11.42578125" style="50"/>
+    <col min="2" max="2" width="4.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="49" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="49" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="49" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="49" customWidth="1"/>
+    <col min="14" max="14" width="15" style="49" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="11.42578125" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="43" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>15</v>
       </c>
@@ -885,38 +1260,38 @@
       <c r="C1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="47" t="s">
+      <c r="J1" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="47" t="s">
-        <v>37</v>
+      <c r="N1" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="O1" s="47" t="s">
         <v>31</v>
@@ -926,43 +1301,43 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="74">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="75">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="D2" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="76">
         <v>150</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="74">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="74">
         <v>70</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="75">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="76">
         <v>165</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="74">
         <v>0</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="75">
         <v>100</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -973,43 +1348,43 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="74">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="75">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="D3" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="76">
         <v>36</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="74">
         <v>20</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="74">
         <v>60</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="75">
         <v>10</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="76">
         <v>45</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="74">
         <v>7</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="75">
         <v>100</v>
       </c>
       <c r="O3" s="3" t="s">
@@ -1020,43 +1395,43 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="74">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="75">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="D4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="76">
         <v>49</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="74">
         <v>32</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="74">
         <v>60</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="75">
         <v>15</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="76">
         <v>57</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="74">
         <v>12</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="75">
         <v>100</v>
       </c>
       <c r="O4" s="3" t="s">
@@ -1067,43 +1442,43 @@
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="77">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="78">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="79">
         <v>161</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="77">
         <v>29</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="77">
         <v>40</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="78">
         <v>19.5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="79">
         <v>172</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="77">
         <v>17</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="77">
         <v>60</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="78">
         <v>7.5</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="79">
         <v>181</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="77">
         <v>8</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="78">
         <v>100</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -1114,43 +1489,43 @@
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="77">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="78">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="79">
         <v>141</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="77">
         <v>25</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="77">
         <v>40</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="78">
         <v>18.5</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="79">
         <v>151</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="77">
         <v>15</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="77">
         <v>60</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="78">
         <v>7.5</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="79">
         <v>159</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="77">
         <v>8</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="78">
         <v>100</v>
       </c>
       <c r="O6" s="6" t="s">
@@ -1161,43 +1536,43 @@
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="77">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="78">
         <v>3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="79">
         <v>118</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="77">
         <v>50</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="77">
         <v>40</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="78">
         <v>23.5</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="79">
         <v>129</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="77">
         <v>31</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="77">
         <v>60</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="78">
         <v>10.5</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="79">
         <v>138</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="77">
         <v>13</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="78">
         <v>100</v>
       </c>
       <c r="O7" s="6" t="s">
@@ -1208,43 +1583,43 @@
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="80">
         <v>3</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="81">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="82">
         <v>117</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="80">
         <v>18</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="80">
         <v>40</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="81">
         <v>0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="82">
         <v>127</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="80">
         <v>0</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="80">
         <v>60</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="81">
         <v>0</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="82">
         <v>137</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="80">
         <v>0</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="81">
         <v>100</v>
       </c>
       <c r="O8" s="9" t="s">
@@ -1255,43 +1630,43 @@
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="80">
         <v>3</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="81">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="82">
         <v>72</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="80">
         <v>30</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="80">
         <v>40</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="81">
         <v>12.5</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="82">
         <v>81</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="80">
         <v>17</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="80">
         <v>60</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="81">
         <v>6.5</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="82">
         <v>90</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="80">
         <v>8</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="81">
         <v>100</v>
       </c>
       <c r="O9" s="9" t="s">
@@ -1302,43 +1677,43 @@
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="80">
         <v>3</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="81">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="82">
         <v>63</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="80">
         <v>34</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="80">
         <v>40</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="81">
         <v>19.5</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="82">
         <v>72</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="80">
         <v>20</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="80">
         <v>60</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="81">
         <v>8.5</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="82">
         <v>81</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="80">
         <v>9</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="81">
         <v>100</v>
       </c>
       <c r="O10" s="9" t="s">
@@ -1349,43 +1724,43 @@
       <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="83">
         <v>4</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="84">
         <v>1</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="85">
         <v>122</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="83">
         <v>33</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="83">
         <v>30</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="84">
         <v>20</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="85">
         <v>129</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="83">
         <v>25</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="83">
         <v>60</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="84">
         <v>10</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="85">
         <v>137</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="83">
         <v>12</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="84">
         <v>100</v>
       </c>
       <c r="O11" s="12" t="s">
@@ -1396,43 +1771,43 @@
       <c r="A12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="83">
         <v>4</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="84">
         <v>2</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="85">
         <v>107</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="83">
         <v>46</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="83">
         <v>50</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="84">
         <v>25</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="85">
         <v>114</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="83">
         <v>25</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="83">
         <v>60</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="84">
         <v>10</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="85">
         <v>121</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="83">
         <v>11</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="84">
         <v>100</v>
       </c>
       <c r="O12" s="12" t="s">
@@ -1443,43 +1818,43 @@
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="83">
         <v>4</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="84">
         <v>3</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="85">
         <v>96</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="83">
         <v>60</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="83">
         <v>50</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="84">
         <v>30</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="85">
         <v>104</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="83">
         <v>32</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="83">
         <v>60</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="84">
         <v>10</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="85">
         <v>114</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="83">
         <v>13</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="84">
         <v>100</v>
       </c>
       <c r="O13" s="12" t="s">
@@ -1490,43 +1865,43 @@
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="86">
         <v>5</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="87">
         <v>1</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="13">
+      <c r="D14" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="88">
         <v>50</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="86">
         <v>0</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="87">
         <v>100</v>
       </c>
       <c r="O14" s="15" t="s">
@@ -1537,43 +1912,43 @@
       <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="86">
         <v>5</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="87">
         <v>2</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="13">
+      <c r="D15" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="88">
         <v>45</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="86">
         <v>0</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="87">
         <v>100</v>
       </c>
       <c r="O15" s="15" t="s">
@@ -1584,43 +1959,43 @@
       <c r="A16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="86">
         <v>5</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="87">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="15" t="s">
+      <c r="D16" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="87" t="s">
         <v>22</v>
       </c>
       <c r="O16" s="15" t="s">
@@ -1631,43 +2006,43 @@
       <c r="A17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="89">
         <v>6</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="90">
         <v>1</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="16">
+      <c r="D17" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="91">
         <v>150</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="89">
         <v>25</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="89">
         <v>60</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="90">
         <v>15</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="91">
         <v>170</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="89">
         <v>15</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="90">
         <v>100</v>
       </c>
       <c r="O17" s="18" t="s">
@@ -1678,43 +2053,43 @@
       <c r="A18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="89">
         <v>6</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="90">
         <v>2</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="16">
+      <c r="D18" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="91">
         <v>120</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="89">
         <v>30</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="89">
         <v>60</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="90">
         <v>20</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="91">
         <v>140</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="89">
         <v>15</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="90">
         <v>100</v>
       </c>
       <c r="O18" s="18" t="s">
@@ -1725,43 +2100,43 @@
       <c r="A19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="89">
         <v>6</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="90">
         <v>3</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="16">
+      <c r="D19" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="91">
         <v>120</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="89">
         <v>30</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="89">
         <v>60</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="90">
         <v>20</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="91">
         <v>130</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="89">
         <v>15</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="90">
         <v>100</v>
       </c>
       <c r="O19" s="18" t="s">
@@ -1772,43 +2147,43 @@
       <c r="A20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="92">
         <v>7</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="93">
         <v>1</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="19">
+      <c r="D20" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="94">
         <v>150</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="92">
         <v>25</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J20" s="92">
         <v>60</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="93">
         <v>15</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="94">
         <v>170</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="92">
         <v>15</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N20" s="93">
         <v>100</v>
       </c>
       <c r="O20" s="21" t="s">
@@ -1819,43 +2194,43 @@
       <c r="A21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="92">
         <v>7</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="93">
         <v>2</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="19">
+      <c r="D21" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="94">
         <v>120</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="92">
         <v>30</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="92">
         <v>60</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="93">
         <v>20</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="94">
         <v>140</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="92">
         <v>15</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N21" s="93">
         <v>100</v>
       </c>
       <c r="O21" s="21" t="s">
@@ -1866,43 +2241,43 @@
       <c r="A22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="92">
         <v>7</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="93">
         <v>3</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="21" t="s">
+      <c r="D22" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="93" t="s">
         <v>22</v>
       </c>
       <c r="O22" s="21" t="s">
@@ -1913,43 +2288,43 @@
       <c r="A23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="95">
         <v>8</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="96">
         <v>1</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="22">
-        <v>100</v>
-      </c>
-      <c r="M23" s="23">
+      <c r="D23" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="97">
+        <v>100</v>
+      </c>
+      <c r="M23" s="95">
         <v>25</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="96">
         <v>100</v>
       </c>
       <c r="O23" s="24" t="s">
@@ -1960,43 +2335,43 @@
       <c r="A24" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="95">
         <v>8</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="96">
         <v>2</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="22">
+      <c r="D24" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="97">
         <v>45</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="95">
         <v>30</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="96">
         <v>100</v>
       </c>
       <c r="O24" s="24" t="s">
@@ -2007,43 +2382,43 @@
       <c r="A25" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="95">
         <v>8</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="96">
         <v>3</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="22">
+      <c r="D25" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="97">
         <v>35</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="95">
         <v>30</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="96">
         <v>100</v>
       </c>
       <c r="O25" s="24" t="s">
@@ -2054,43 +2429,43 @@
       <c r="A26" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="98">
         <v>9</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="99">
         <v>1</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" s="27" t="s">
+      <c r="D26" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="99" t="s">
         <v>22</v>
       </c>
       <c r="O26" s="27" t="s">
@@ -2101,43 +2476,43 @@
       <c r="A27" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="98">
         <v>9</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="99">
         <v>2</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="27" t="s">
+      <c r="D27" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="99" t="s">
         <v>22</v>
       </c>
       <c r="O27" s="27" t="s">
@@ -2148,43 +2523,43 @@
       <c r="A28" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="98">
         <v>9</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="99">
         <v>3</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" s="27" t="s">
+      <c r="D28" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="99" t="s">
         <v>22</v>
       </c>
       <c r="O28" s="27" t="s">
@@ -2195,43 +2570,43 @@
       <c r="A29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="101">
         <v>10</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="102">
         <v>1</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="28">
-        <v>100</v>
-      </c>
-      <c r="M29" s="29">
+      <c r="D29" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="103">
+        <v>100</v>
+      </c>
+      <c r="M29" s="101">
         <v>25</v>
       </c>
-      <c r="N29" s="30">
+      <c r="N29" s="102">
         <v>100</v>
       </c>
       <c r="O29" s="30" t="s">
@@ -2242,43 +2617,43 @@
       <c r="A30" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="101">
         <v>10</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="102">
         <v>2</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="28">
+      <c r="D30" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="103">
         <v>50</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="101">
         <v>28</v>
       </c>
-      <c r="N30" s="30">
+      <c r="N30" s="102">
         <v>100</v>
       </c>
       <c r="O30" s="30" t="s">
@@ -2289,43 +2664,43 @@
       <c r="A31" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="101">
         <v>10</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="102">
         <v>3</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" s="30" t="s">
+      <c r="D31" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="102" t="s">
         <v>22</v>
       </c>
       <c r="O31" s="30" t="s">
@@ -2336,43 +2711,43 @@
       <c r="A32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="104">
         <v>11</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="105">
         <v>1</v>
       </c>
-      <c r="D32" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="31">
+      <c r="D32" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="106">
         <v>50</v>
       </c>
-      <c r="M32" s="32">
+      <c r="M32" s="104">
         <v>25</v>
       </c>
-      <c r="N32" s="33">
+      <c r="N32" s="105">
         <v>100</v>
       </c>
       <c r="O32" s="33" t="s">
@@ -2383,43 +2758,43 @@
       <c r="A33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="104">
         <v>11</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="105">
         <v>2</v>
       </c>
-      <c r="D33" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="31">
+      <c r="D33" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="106">
         <v>25</v>
       </c>
-      <c r="M33" s="32">
+      <c r="M33" s="104">
         <v>25</v>
       </c>
-      <c r="N33" s="33">
+      <c r="N33" s="105">
         <v>100</v>
       </c>
       <c r="O33" s="33" t="s">
@@ -2430,43 +2805,43 @@
       <c r="A34" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="104">
         <v>11</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="105">
         <v>3</v>
       </c>
-      <c r="D34" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="N34" s="33" t="s">
+      <c r="D34" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="105" t="s">
         <v>22</v>
       </c>
       <c r="O34" s="33" t="s">
@@ -2477,43 +2852,43 @@
       <c r="A35" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="107">
         <v>12</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="108">
         <v>1</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="109">
         <v>92</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="107">
         <v>28</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="107">
         <v>40</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="108">
         <v>17</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="109">
         <v>101</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="107">
         <v>19</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="107">
         <v>60</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="108">
         <v>8</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L35" s="109">
         <v>110</v>
       </c>
-      <c r="M35" s="35">
+      <c r="M35" s="107">
         <v>9</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="108">
         <v>100</v>
       </c>
       <c r="O35" s="36" t="s">
@@ -2524,184 +2899,184 @@
       <c r="A36" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="107">
         <v>12</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="108">
         <v>2</v>
       </c>
-      <c r="D36" s="34">
-        <v>83</v>
-      </c>
-      <c r="E36" s="35">
-        <v>31</v>
-      </c>
-      <c r="F36" s="35">
+      <c r="D36" s="109">
+        <v>82</v>
+      </c>
+      <c r="E36" s="107">
+        <v>43</v>
+      </c>
+      <c r="F36" s="107">
         <v>40</v>
       </c>
-      <c r="G36" s="36">
-        <v>19</v>
-      </c>
-      <c r="H36" s="34">
-        <v>93</v>
-      </c>
-      <c r="I36" s="35">
-        <v>19</v>
-      </c>
-      <c r="J36" s="35">
+      <c r="G36" s="108">
+        <v>26</v>
+      </c>
+      <c r="H36" s="109">
+        <v>90</v>
+      </c>
+      <c r="I36" s="107">
+        <v>30</v>
+      </c>
+      <c r="J36" s="107">
         <v>60</v>
       </c>
-      <c r="K36" s="36">
-        <v>8</v>
-      </c>
-      <c r="L36" s="34">
-        <v>99</v>
-      </c>
-      <c r="M36" s="35">
-        <v>9</v>
-      </c>
-      <c r="N36" s="36">
+      <c r="K36" s="108">
+        <v>12</v>
+      </c>
+      <c r="L36" s="109">
+        <v>98</v>
+      </c>
+      <c r="M36" s="107">
+        <v>15</v>
+      </c>
+      <c r="N36" s="108">
         <v>100</v>
       </c>
       <c r="O36" s="36" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="107">
         <v>12</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="108">
         <v>3</v>
       </c>
-      <c r="D37" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="M37" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="N37" s="36" t="s">
+      <c r="D37" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" s="108" t="s">
         <v>22</v>
       </c>
       <c r="O37" s="36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="110">
         <v>13</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="111">
         <v>1</v>
       </c>
-      <c r="D38" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J38" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="M38" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="N38" s="42" t="s">
-        <v>22</v>
+      <c r="D38" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="112">
+        <v>28</v>
+      </c>
+      <c r="M38" s="110">
+        <v>46</v>
+      </c>
+      <c r="N38" s="111">
+        <v>100</v>
       </c>
       <c r="O38" s="39" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39" s="110">
         <v>13</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="111">
         <v>2</v>
       </c>
-      <c r="D39" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="37">
+      <c r="D39" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="112">
         <v>28</v>
       </c>
-      <c r="M39" s="38">
+      <c r="M39" s="110">
         <v>41</v>
       </c>
-      <c r="N39" s="39">
+      <c r="N39" s="111">
         <v>100</v>
       </c>
       <c r="O39" s="39" t="s">
@@ -2712,74 +3087,2548 @@
       <c r="A40" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40" s="113">
         <v>13</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="114">
         <v>3</v>
       </c>
-      <c r="D40" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="M40" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="N40" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="O40" s="39" t="s">
+      <c r="D40" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="O40" s="42" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C43">
-    <sortCondition ref="B1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="48"/>
+    <col min="2" max="2" width="4.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" style="49" customWidth="1"/>
+    <col min="14" max="14" width="15" style="49" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="44"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="1" spans="1:15" s="43" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1">
+        <v>150</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>70</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>165</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>100</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
+        <v>60</v>
+      </c>
+      <c r="K3" s="3">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2">
+        <v>7</v>
+      </c>
+      <c r="N3" s="3">
+        <v>100</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1">
+        <v>49</v>
+      </c>
+      <c r="I4" s="2">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2">
+        <v>60</v>
+      </c>
+      <c r="K4" s="3">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1">
+        <v>57</v>
+      </c>
+      <c r="M4" s="2">
+        <v>12</v>
+      </c>
+      <c r="N4" s="3">
+        <v>100</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>161</v>
+      </c>
+      <c r="E5" s="5">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>172</v>
+      </c>
+      <c r="I5" s="5">
+        <v>17</v>
+      </c>
+      <c r="J5" s="5">
+        <v>60</v>
+      </c>
+      <c r="K5" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>181</v>
+      </c>
+      <c r="M5" s="5">
+        <v>8</v>
+      </c>
+      <c r="N5" s="6">
+        <v>100</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>141</v>
+      </c>
+      <c r="E6" s="5">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>151</v>
+      </c>
+      <c r="I6" s="5">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5">
+        <v>60</v>
+      </c>
+      <c r="K6" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>159</v>
+      </c>
+      <c r="M6" s="5">
+        <v>8</v>
+      </c>
+      <c r="N6" s="6">
+        <v>100</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>118</v>
+      </c>
+      <c r="E7" s="5">
+        <v>50</v>
+      </c>
+      <c r="F7" s="5">
+        <v>40</v>
+      </c>
+      <c r="G7" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>129</v>
+      </c>
+      <c r="I7" s="5">
+        <v>31</v>
+      </c>
+      <c r="J7" s="5">
+        <v>60</v>
+      </c>
+      <c r="K7" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>138</v>
+      </c>
+      <c r="M7" s="5">
+        <v>13</v>
+      </c>
+      <c r="N7" s="6">
+        <v>100</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>117</v>
+      </c>
+      <c r="E8" s="8">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8">
+        <v>40</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>127</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>60</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>137</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>100</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>72</v>
+      </c>
+      <c r="E9" s="8">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="H9" s="7">
+        <v>81</v>
+      </c>
+      <c r="I9" s="8">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8">
+        <v>60</v>
+      </c>
+      <c r="K9" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="L9" s="7">
+        <v>90</v>
+      </c>
+      <c r="M9" s="8">
+        <v>8</v>
+      </c>
+      <c r="N9" s="9">
+        <v>100</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>63</v>
+      </c>
+      <c r="E10" s="8">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>72</v>
+      </c>
+      <c r="I10" s="8">
+        <v>20</v>
+      </c>
+      <c r="J10" s="8">
+        <v>60</v>
+      </c>
+      <c r="K10" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="L10" s="7">
+        <v>81</v>
+      </c>
+      <c r="M10" s="8">
+        <v>9</v>
+      </c>
+      <c r="N10" s="9">
+        <v>100</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>122</v>
+      </c>
+      <c r="E11" s="11">
+        <v>33</v>
+      </c>
+      <c r="F11" s="11">
+        <v>30</v>
+      </c>
+      <c r="G11" s="12">
+        <v>20</v>
+      </c>
+      <c r="H11" s="10">
+        <v>129</v>
+      </c>
+      <c r="I11" s="11">
+        <v>25</v>
+      </c>
+      <c r="J11" s="11">
+        <v>60</v>
+      </c>
+      <c r="K11" s="12">
+        <v>10</v>
+      </c>
+      <c r="L11" s="10">
+        <v>137</v>
+      </c>
+      <c r="M11" s="11">
+        <v>12</v>
+      </c>
+      <c r="N11" s="12">
+        <v>100</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>107</v>
+      </c>
+      <c r="E12" s="11">
+        <v>46</v>
+      </c>
+      <c r="F12" s="11">
+        <v>50</v>
+      </c>
+      <c r="G12" s="12">
+        <v>25</v>
+      </c>
+      <c r="H12" s="10">
+        <v>114</v>
+      </c>
+      <c r="I12" s="11">
+        <v>25</v>
+      </c>
+      <c r="J12" s="11">
+        <v>60</v>
+      </c>
+      <c r="K12" s="12">
+        <v>10</v>
+      </c>
+      <c r="L12" s="10">
+        <v>121</v>
+      </c>
+      <c r="M12" s="11">
+        <v>11</v>
+      </c>
+      <c r="N12" s="12">
+        <v>100</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10">
+        <v>96</v>
+      </c>
+      <c r="E13" s="11">
+        <v>60</v>
+      </c>
+      <c r="F13" s="11">
+        <v>50</v>
+      </c>
+      <c r="G13" s="12">
+        <v>30</v>
+      </c>
+      <c r="H13" s="10">
+        <v>104</v>
+      </c>
+      <c r="I13" s="11">
+        <v>32</v>
+      </c>
+      <c r="J13" s="11">
+        <v>60</v>
+      </c>
+      <c r="K13" s="12">
+        <v>10</v>
+      </c>
+      <c r="L13" s="10">
+        <v>114</v>
+      </c>
+      <c r="M13" s="11">
+        <v>13</v>
+      </c>
+      <c r="N13" s="12">
+        <v>100</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="13">
+        <v>50</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <v>100</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="14">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="13">
+        <v>45</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15">
+        <v>100</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="14">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="17">
+        <v>6</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="16">
+        <v>150</v>
+      </c>
+      <c r="I17" s="17">
+        <v>25</v>
+      </c>
+      <c r="J17" s="17">
+        <v>60</v>
+      </c>
+      <c r="K17" s="18">
+        <v>15</v>
+      </c>
+      <c r="L17" s="16">
+        <v>170</v>
+      </c>
+      <c r="M17" s="17">
+        <v>15</v>
+      </c>
+      <c r="N17" s="18">
+        <v>100</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="17">
+        <v>6</v>
+      </c>
+      <c r="C18" s="18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="16">
+        <v>120</v>
+      </c>
+      <c r="I18" s="17">
+        <v>30</v>
+      </c>
+      <c r="J18" s="17">
+        <v>60</v>
+      </c>
+      <c r="K18" s="18">
+        <v>20</v>
+      </c>
+      <c r="L18" s="16">
+        <v>140</v>
+      </c>
+      <c r="M18" s="17">
+        <v>15</v>
+      </c>
+      <c r="N18" s="18">
+        <v>100</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="17">
+        <v>6</v>
+      </c>
+      <c r="C19" s="18">
+        <v>3</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="16">
+        <v>120</v>
+      </c>
+      <c r="I19" s="17">
+        <v>30</v>
+      </c>
+      <c r="J19" s="17">
+        <v>60</v>
+      </c>
+      <c r="K19" s="18">
+        <v>20</v>
+      </c>
+      <c r="L19" s="16">
+        <v>130</v>
+      </c>
+      <c r="M19" s="17">
+        <v>15</v>
+      </c>
+      <c r="N19" s="18">
+        <v>100</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="20">
+        <v>7</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="19">
+        <v>150</v>
+      </c>
+      <c r="I20" s="20">
+        <v>25</v>
+      </c>
+      <c r="J20" s="20">
+        <v>60</v>
+      </c>
+      <c r="K20" s="21">
+        <v>15</v>
+      </c>
+      <c r="L20" s="19">
+        <v>170</v>
+      </c>
+      <c r="M20" s="20">
+        <v>15</v>
+      </c>
+      <c r="N20" s="21">
+        <v>100</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="20">
+        <v>7</v>
+      </c>
+      <c r="C21" s="21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="19">
+        <v>120</v>
+      </c>
+      <c r="I21" s="20">
+        <v>30</v>
+      </c>
+      <c r="J21" s="20">
+        <v>60</v>
+      </c>
+      <c r="K21" s="21">
+        <v>20</v>
+      </c>
+      <c r="L21" s="19">
+        <v>140</v>
+      </c>
+      <c r="M21" s="20">
+        <v>15</v>
+      </c>
+      <c r="N21" s="21">
+        <v>100</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="20">
+        <v>7</v>
+      </c>
+      <c r="C22" s="21">
+        <v>3</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="23">
+        <v>8</v>
+      </c>
+      <c r="C23" s="24">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="22">
+        <v>100</v>
+      </c>
+      <c r="M23" s="23">
+        <v>25</v>
+      </c>
+      <c r="N23" s="24">
+        <v>100</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="23">
+        <v>8</v>
+      </c>
+      <c r="C24" s="24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="22">
+        <v>45</v>
+      </c>
+      <c r="M24" s="23">
+        <v>30</v>
+      </c>
+      <c r="N24" s="24">
+        <v>100</v>
+      </c>
+      <c r="O24" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="23">
+        <v>8</v>
+      </c>
+      <c r="C25" s="24">
+        <v>3</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="22">
+        <v>35</v>
+      </c>
+      <c r="M25" s="23">
+        <v>30</v>
+      </c>
+      <c r="N25" s="24">
+        <v>100</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="26">
+        <v>9</v>
+      </c>
+      <c r="C26" s="27">
+        <v>1</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="26">
+        <v>9</v>
+      </c>
+      <c r="C27" s="27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="26">
+        <v>9</v>
+      </c>
+      <c r="C28" s="27">
+        <v>3</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="29">
+        <v>10</v>
+      </c>
+      <c r="C29" s="30">
+        <v>1</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="28">
+        <v>100</v>
+      </c>
+      <c r="M29" s="29">
+        <v>25</v>
+      </c>
+      <c r="N29" s="30">
+        <v>100</v>
+      </c>
+      <c r="O29" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="29">
+        <v>10</v>
+      </c>
+      <c r="C30" s="30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="28">
+        <v>50</v>
+      </c>
+      <c r="M30" s="29">
+        <v>28</v>
+      </c>
+      <c r="N30" s="30">
+        <v>100</v>
+      </c>
+      <c r="O30" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="29">
+        <v>10</v>
+      </c>
+      <c r="C31" s="30">
+        <v>3</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="32">
+        <v>11</v>
+      </c>
+      <c r="C32" s="33">
+        <v>1</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="31">
+        <v>50</v>
+      </c>
+      <c r="M32" s="32">
+        <v>25</v>
+      </c>
+      <c r="N32" s="33">
+        <v>100</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="32">
+        <v>11</v>
+      </c>
+      <c r="C33" s="33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="31">
+        <v>25</v>
+      </c>
+      <c r="M33" s="32">
+        <v>25</v>
+      </c>
+      <c r="N33" s="33">
+        <v>100</v>
+      </c>
+      <c r="O33" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="32">
+        <v>11</v>
+      </c>
+      <c r="C34" s="33">
+        <v>3</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="35">
+        <v>12</v>
+      </c>
+      <c r="C35" s="36">
+        <v>1</v>
+      </c>
+      <c r="D35" s="34">
+        <v>92</v>
+      </c>
+      <c r="E35" s="35">
+        <v>28</v>
+      </c>
+      <c r="F35" s="35">
+        <v>40</v>
+      </c>
+      <c r="G35" s="36">
+        <v>17</v>
+      </c>
+      <c r="H35" s="34">
+        <v>101</v>
+      </c>
+      <c r="I35" s="35">
+        <v>19</v>
+      </c>
+      <c r="J35" s="35">
+        <v>60</v>
+      </c>
+      <c r="K35" s="36">
+        <v>8</v>
+      </c>
+      <c r="L35" s="34">
+        <v>110</v>
+      </c>
+      <c r="M35" s="35">
+        <v>9</v>
+      </c>
+      <c r="N35" s="36">
+        <v>100</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="35">
+        <v>12</v>
+      </c>
+      <c r="C36" s="36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="34">
+        <v>83</v>
+      </c>
+      <c r="E36" s="35">
+        <v>31</v>
+      </c>
+      <c r="F36" s="35">
+        <v>40</v>
+      </c>
+      <c r="G36" s="36">
+        <v>19</v>
+      </c>
+      <c r="H36" s="34">
+        <v>93</v>
+      </c>
+      <c r="I36" s="35">
+        <v>19</v>
+      </c>
+      <c r="J36" s="35">
+        <v>60</v>
+      </c>
+      <c r="K36" s="36">
+        <v>8</v>
+      </c>
+      <c r="L36" s="34">
+        <v>99</v>
+      </c>
+      <c r="M36" s="35">
+        <v>9</v>
+      </c>
+      <c r="N36" s="36">
+        <v>100</v>
+      </c>
+      <c r="O36" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="35">
+        <v>12</v>
+      </c>
+      <c r="C37" s="36">
+        <v>3</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="38">
+        <v>13</v>
+      </c>
+      <c r="C38" s="39">
+        <v>1</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="37">
+        <v>28</v>
+      </c>
+      <c r="M38" s="38">
+        <v>46</v>
+      </c>
+      <c r="N38" s="39">
+        <v>100</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="38">
+        <v>13</v>
+      </c>
+      <c r="C39" s="39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="37">
+        <v>28</v>
+      </c>
+      <c r="M39" s="38">
+        <v>41</v>
+      </c>
+      <c r="N39" s="39">
+        <v>100</v>
+      </c>
+      <c r="O39" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="41">
+        <v>13</v>
+      </c>
+      <c r="C40" s="42">
+        <v>3</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="O40" s="42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C43">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="54"/>
+    <col min="4" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="73" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="68"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="61"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="60">
+        <v>1</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="69">
+        <v>108139</v>
+      </c>
+      <c r="E8" s="69">
+        <v>120623</v>
+      </c>
+      <c r="F8" s="69">
+        <v>60651</v>
+      </c>
+      <c r="G8" s="70">
+        <f>SUM(D8:F8)</f>
+        <v>289413</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="60">
+        <v>2</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="69">
+        <v>529</v>
+      </c>
+      <c r="E9" s="69">
+        <v>29055</v>
+      </c>
+      <c r="F9" s="69">
+        <v>59008</v>
+      </c>
+      <c r="G9" s="70">
+        <f t="shared" ref="G9:G20" si="0">SUM(D9:F9)</f>
+        <v>88592</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="60">
+        <v>3</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="69">
+        <v>8839</v>
+      </c>
+      <c r="E10" s="69">
+        <v>24736</v>
+      </c>
+      <c r="F10" s="69">
+        <v>0</v>
+      </c>
+      <c r="G10" s="70">
+        <f t="shared" si="0"/>
+        <v>33575</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="60">
+        <v>4</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="69">
+        <v>29429</v>
+      </c>
+      <c r="E11" s="69">
+        <v>48767</v>
+      </c>
+      <c r="F11" s="69">
+        <v>31229</v>
+      </c>
+      <c r="G11" s="70">
+        <f t="shared" si="0"/>
+        <v>109425</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="60">
+        <v>5</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="69">
+        <v>2676</v>
+      </c>
+      <c r="E12" s="69">
+        <v>9899</v>
+      </c>
+      <c r="F12" s="69">
+        <v>0</v>
+      </c>
+      <c r="G12" s="70">
+        <f t="shared" si="0"/>
+        <v>12575</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="60">
+        <v>6</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="69">
+        <v>17</v>
+      </c>
+      <c r="E13" s="69">
+        <v>299</v>
+      </c>
+      <c r="F13" s="69">
+        <v>15758</v>
+      </c>
+      <c r="G13" s="70">
+        <f t="shared" si="0"/>
+        <v>16074</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="60">
+        <v>7</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="69">
+        <v>0</v>
+      </c>
+      <c r="E14" s="69">
+        <v>1729</v>
+      </c>
+      <c r="F14" s="69">
+        <v>0</v>
+      </c>
+      <c r="G14" s="70">
+        <f t="shared" si="0"/>
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="60">
+        <v>8</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="69">
+        <v>31882</v>
+      </c>
+      <c r="E15" s="69">
+        <v>50540</v>
+      </c>
+      <c r="F15" s="69">
+        <v>46388</v>
+      </c>
+      <c r="G15" s="70">
+        <f t="shared" si="0"/>
+        <v>128810</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="60">
+        <v>10</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="69">
+        <v>6</v>
+      </c>
+      <c r="E16" s="69">
+        <v>36837</v>
+      </c>
+      <c r="F16" s="69">
+        <v>0</v>
+      </c>
+      <c r="G16" s="70">
+        <f t="shared" si="0"/>
+        <v>36843</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="60">
+        <v>11</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="69">
+        <v>46062</v>
+      </c>
+      <c r="E17" s="69">
+        <v>11420</v>
+      </c>
+      <c r="F17" s="69">
+        <v>0</v>
+      </c>
+      <c r="G17" s="70">
+        <f t="shared" si="0"/>
+        <v>57482</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="60">
+        <v>12</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="69">
+        <v>151</v>
+      </c>
+      <c r="E18" s="69">
+        <v>10870</v>
+      </c>
+      <c r="F18" s="69">
+        <v>0</v>
+      </c>
+      <c r="G18" s="70">
+        <f t="shared" si="0"/>
+        <v>11021</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="60">
+        <v>13</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="69">
+        <v>48704</v>
+      </c>
+      <c r="E19" s="69">
+        <v>2470</v>
+      </c>
+      <c r="F19" s="69">
+        <v>0</v>
+      </c>
+      <c r="G19" s="70">
+        <f t="shared" si="0"/>
+        <v>51174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="62"/>
+      <c r="C20" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="71">
+        <f>SUM(D7:D19)</f>
+        <v>276434</v>
+      </c>
+      <c r="E20" s="71">
+        <f t="shared" ref="E20:F20" si="1">SUM(E7:E19)</f>
+        <v>347245</v>
+      </c>
+      <c r="F20" s="71">
+        <f t="shared" si="1"/>
+        <v>213034</v>
+      </c>
+      <c r="G20" s="72">
+        <f t="shared" si="0"/>
+        <v>836713</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="67"/>
+      <c r="D23" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="68"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="61"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="60">
+        <v>1</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="69">
+        <v>0</v>
+      </c>
+      <c r="E25" s="69">
+        <v>41538</v>
+      </c>
+      <c r="F25" s="69">
+        <v>22156</v>
+      </c>
+      <c r="G25" s="70">
+        <f>SUM(D25:F25)</f>
+        <v>63694</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="60">
+        <v>3</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="69">
+        <v>0</v>
+      </c>
+      <c r="E26" s="69">
+        <v>95</v>
+      </c>
+      <c r="F26" s="69">
+        <v>0</v>
+      </c>
+      <c r="G26" s="70">
+        <f t="shared" ref="G26:G34" si="2">SUM(D26:F26)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="60">
+        <v>4</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="69">
+        <v>0</v>
+      </c>
+      <c r="E27" s="69">
+        <v>0</v>
+      </c>
+      <c r="F27" s="69">
+        <v>1</v>
+      </c>
+      <c r="G27" s="70">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="60">
+        <v>8</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="69">
+        <v>20</v>
+      </c>
+      <c r="E28" s="69">
+        <v>1124</v>
+      </c>
+      <c r="F28" s="69">
+        <v>2935</v>
+      </c>
+      <c r="G28" s="70">
+        <f t="shared" si="2"/>
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="60">
+        <v>10</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="69">
+        <v>0</v>
+      </c>
+      <c r="E29" s="69">
+        <v>63</v>
+      </c>
+      <c r="F29" s="69">
+        <v>0</v>
+      </c>
+      <c r="G29" s="70">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="60">
+        <v>11</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="69">
+        <v>6258</v>
+      </c>
+      <c r="E30" s="69">
+        <v>2174</v>
+      </c>
+      <c r="F30" s="69">
+        <v>0</v>
+      </c>
+      <c r="G30" s="70">
+        <f t="shared" si="2"/>
+        <v>8432</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="60">
+        <v>12</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="69">
+        <v>0</v>
+      </c>
+      <c r="E31" s="69">
+        <v>1</v>
+      </c>
+      <c r="F31" s="69">
+        <v>0</v>
+      </c>
+      <c r="G31" s="70">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="60">
+        <v>13</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="69">
+        <v>1134</v>
+      </c>
+      <c r="E32" s="69">
+        <v>19</v>
+      </c>
+      <c r="F32" s="69">
+        <v>0</v>
+      </c>
+      <c r="G32" s="70">
+        <f t="shared" si="2"/>
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="62"/>
+      <c r="C33" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="71">
+        <f>SUM(D25:D32)</f>
+        <v>7412</v>
+      </c>
+      <c r="E33" s="71">
+        <f t="shared" ref="E33:F33" si="3">SUM(E25:E32)</f>
+        <v>45014</v>
+      </c>
+      <c r="F33" s="71">
+        <f t="shared" si="3"/>
+        <v>25092</v>
+      </c>
+      <c r="G33" s="72">
+        <f t="shared" si="2"/>
+        <v>77518</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>